--- a/static/final.xlsx
+++ b/static/final.xlsx
@@ -188,67 +188,67 @@
     <t>ACL</t>
   </si>
   <si>
+    <t>VDN</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SNV</t>
+  </si>
+  <si>
+    <t>MKP</t>
+  </si>
+  <si>
     <t>MJ</t>
   </si>
   <si>
-    <t>-</t>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>NMJ</t>
+  </si>
+  <si>
+    <t>AJS</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
   <si>
     <t>VS</t>
-  </si>
-  <si>
-    <t>AJS</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>JJ</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>KN</t>
-  </si>
-  <si>
-    <t>NMJ</t>
-  </si>
-  <si>
-    <t>MKP</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>SMA</t>
-  </si>
-  <si>
-    <t>SNV</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>VDN</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>F6</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1580,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>58</v>
@@ -1600,10 +1600,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>58</v>
@@ -1644,7 +1644,7 @@
         <v>58</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1655,7 +1655,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>58</v>
@@ -1681,7 +1681,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>58</v>
@@ -1736,10 +1736,10 @@
         <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>58</v>
@@ -1759,7 +1759,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>58</v>
@@ -1785,7 +1785,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -1797,10 +1797,10 @@
         <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>58</v>
@@ -1814,10 +1814,10 @@
         <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>58</v>
@@ -1829,7 +1829,7 @@
         <v>58</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1837,10 +1837,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>58</v>
@@ -1852,7 +1852,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>58</v>
@@ -1892,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>58</v>
@@ -1944,13 +1944,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>58</v>
@@ -1996,7 +1996,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>58</v>
@@ -2014,7 +2014,7 @@
         <v>58</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2057,13 +2057,13 @@
         <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>58</v>
@@ -2077,7 +2077,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>58</v>
@@ -2106,7 +2106,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>58</v>
@@ -2121,7 +2121,7 @@
         <v>58</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2158,7 +2158,7 @@
         <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>58</v>
@@ -2369,10 +2369,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>58</v>
@@ -2398,16 +2398,16 @@
         <v>58</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>58</v>
@@ -2439,7 +2439,7 @@
         <v>58</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2447,7 +2447,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>58</v>
@@ -2473,13 +2473,13 @@
         <v>26</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>58</v>
@@ -2488,7 +2488,7 @@
         <v>58</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>58</v>
@@ -2528,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>58</v>
@@ -2560,7 +2560,7 @@
         <v>58</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>58</v>
@@ -2580,7 +2580,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>58</v>
@@ -2606,7 +2606,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>58</v>
@@ -2632,7 +2632,7 @@
         <v>26</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>58</v>
@@ -2644,7 +2644,7 @@
         <v>58</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>58</v>
@@ -2690,7 +2690,7 @@
         <v>58</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>58</v>
@@ -2713,13 +2713,13 @@
         <v>18</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>58</v>
@@ -2742,10 +2742,10 @@
         <v>58</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>58</v>
@@ -2768,16 +2768,16 @@
         <v>58</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>58</v>
@@ -2794,7 +2794,7 @@
         <v>58</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>58</v>
@@ -2806,7 +2806,7 @@
         <v>58</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>58</v>
@@ -2846,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>58</v>
@@ -2898,13 +2898,13 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>58</v>
@@ -2942,7 +2942,7 @@
         <v>58</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2968,7 +2968,7 @@
         <v>58</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3005,10 +3005,10 @@
         <v>10</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>58</v>
@@ -3031,7 +3031,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>58</v>
@@ -3043,7 +3043,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>58</v>
@@ -3060,10 +3060,10 @@
         <v>58</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>58</v>
@@ -3083,19 +3083,19 @@
         <v>25</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>58</v>
@@ -3124,10 +3124,10 @@
         <v>58</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3164,7 +3164,7 @@
         <v>10</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>58</v>
@@ -3196,13 +3196,13 @@
         <v>58</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>58</v>
@@ -3242,7 +3242,7 @@
         <v>25</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>58</v>
@@ -3280,13 +3280,13 @@
         <v>58</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3326,7 +3326,7 @@
         <v>58</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>58</v>
@@ -3335,7 +3335,7 @@
         <v>58</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>58</v>
@@ -3355,7 +3355,7 @@
         <v>58</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>58</v>
@@ -3381,7 +3381,7 @@
         <v>58</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>58</v>
@@ -3404,7 +3404,7 @@
         <v>58</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>58</v>
@@ -3433,13 +3433,13 @@
         <v>58</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>58</v>
@@ -3497,7 +3497,7 @@
         <v>58</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>58</v>
@@ -3534,13 +3534,13 @@
         <v>21</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>58</v>
@@ -3578,7 +3578,7 @@
         <v>58</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3589,7 +3589,7 @@
         <v>58</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>58</v>
@@ -3803,7 +3803,7 @@
         <v>58</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>58</v>
@@ -3812,7 +3812,7 @@
         <v>58</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>58</v>
@@ -3826,7 +3826,7 @@
         <v>18</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>58</v>
@@ -3852,7 +3852,7 @@
         <v>21</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>58</v>
@@ -3864,7 +3864,7 @@
         <v>58</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>58</v>
@@ -3881,7 +3881,7 @@
         <v>58</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>58</v>
@@ -3907,10 +3907,10 @@
         <v>58</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>58</v>
@@ -3919,7 +3919,7 @@
         <v>58</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>58</v>
@@ -3965,7 +3965,7 @@
         <v>58</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>58</v>
@@ -3977,7 +3977,7 @@
         <v>58</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4023,7 +4023,7 @@
         <v>58</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>58</v>
@@ -4063,7 +4063,7 @@
         <v>26</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>58</v>
@@ -4075,7 +4075,7 @@
         <v>58</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>58</v>
@@ -4124,7 +4124,7 @@
         <v>58</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>58</v>
@@ -4133,7 +4133,7 @@
         <v>58</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>58</v>
@@ -4176,7 +4176,7 @@
         <v>58</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>58</v>
@@ -4225,7 +4225,7 @@
         <v>58</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>58</v>
@@ -4234,7 +4234,7 @@
         <v>58</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>58</v>
@@ -4283,13 +4283,13 @@
         <v>58</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>58</v>
@@ -4306,7 +4306,7 @@
         <v>58</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>58</v>
@@ -4332,7 +4332,7 @@
         <v>58</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>58</v>
@@ -4358,7 +4358,7 @@
         <v>58</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>58</v>
@@ -4384,7 +4384,7 @@
         <v>58</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>58</v>
@@ -4436,10 +4436,10 @@
         <v>10</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>58</v>
@@ -4465,16 +4465,16 @@
         <v>58</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>58</v>
@@ -4494,7 +4494,7 @@
         <v>58</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>58</v>
@@ -4506,7 +4506,7 @@
         <v>58</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4514,10 +4514,10 @@
         <v>25</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>58</v>
@@ -4540,22 +4540,22 @@
         <v>26</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>58</v>
@@ -4601,7 +4601,7 @@
         <v>58</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>58</v>
@@ -4613,7 +4613,7 @@
         <v>58</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4621,7 +4621,7 @@
         <v>18</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>58</v>
@@ -4647,7 +4647,7 @@
         <v>21</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>58</v>
@@ -4659,10 +4659,10 @@
         <v>58</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>58</v>
@@ -4679,7 +4679,7 @@
         <v>58</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>58</v>
@@ -4691,7 +4691,7 @@
         <v>58</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4699,7 +4699,7 @@
         <v>26</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>58</v>
